--- a/data/ReportScoreChangeNotification.xlsx
+++ b/data/ReportScoreChangeNotification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajith\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD60534-D85B-4F76-AD55-6E4C87AABA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C9F50-D331-4B8D-9E9E-C69B250FB67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>spillai@dacgroup.com</t>
-  </si>
-  <si>
     <t>Visibility</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>above</t>
+  </si>
+  <si>
+    <t>chappel.mann+stl2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,16 +425,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -442,16 +442,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>75</v>
@@ -459,8 +459,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9069174E-C064-4E85-8719-5B7CC01A4D9E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{29B05F47-FE59-4858-8B62-436A8FA94ADF}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{29B05F47-FE59-4858-8B62-436A8FA94ADF}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{9641DDF5-5607-46C0-BDB1-D0BA2C9B351E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ReportScoreChangeNotification.xlsx
+++ b/data/ReportScoreChangeNotification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajith\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C9F50-D331-4B8D-9E9E-C69B250FB67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920451CD-8A4D-4659-9CB5-D0BC2D92AB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>above</t>
   </si>
   <si>
-    <t>chappel.mann+stl2@gmail.com</t>
+    <t>chappel.mann+stc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/ReportScoreChangeNotification.xlsx
+++ b/data/ReportScoreChangeNotification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajith\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920451CD-8A4D-4659-9CB5-D0BC2D92AB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7273B53A-0A18-40A4-A0E2-8952995048DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>above</t>
   </si>
   <si>
-    <t>chappel.mann+stc@gmail.com</t>
+    <t>chappel.mann+stl2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
